--- a/medicine/Enfance/Ronan_Badel/Ronan_Badel.xlsx
+++ b/medicine/Enfance/Ronan_Badel/Ronan_Badel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ronan Badel, né le 17 janvier 1972 à Auray[1] (Morbihan), est un artiste français, illustrateur et auteur de littérature jeunesse.
-Une de ses séries jeunesse[2] les plus « célèbres[3] » est celle du « petit garçon têtu[4] » Émile[5], sur des textes de Vincent Cuvellier, dont il est l'illustrateur.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ronan Badel, né le 17 janvier 1972 à Auray (Morbihan), est un artiste français, illustrateur et auteur de littérature jeunesse.
+Une de ses séries jeunesse les plus « célèbres » est celle du « petit garçon têtu » Émile, sur des textes de Vincent Cuvellier, dont il est l'illustrateur.
 </t>
         </is>
       </c>
@@ -512,19 +524,21 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ronan Badel a suivi sa scolarité au lycée Benjamin-Franklin[6] à Auray, a suivi une école de dessin à Paris[6] et il est diplômé de l'École supérieure des arts décoratifs de Strasbourg[1],[7]. Il indique en 2013 : « Dans le jury qui a examiné mon projet de diplôme, il y avait un éditeur du Seuil. C'est ainsi que mon premier livre est sorti, en 1998[6] », alors qu'il est âgé de 26 ans[8].
-Il enseigne l’illustration dans une école d’art à Paris durant plusieurs années[1], puis retourne dans sa région natale, la Bretagne, à Vannes, en 2003[6], où il réside toujours[9], pour se consacrer à l'écriture et à l'illustration d'ouvrages jeunesse.
-Il se sert de plusieurs techniques d'illustration, et déclare en 2014 : « Quand je reçois un projet ou quand j’écris un texte, je ne sais jamais quelle piste graphique je vais utiliser. C’est précisément ce qui m’intéresse. Je veux continuer à chercher et à explorer différentes écritures, différents outils[7]. » En 2017, il précise : « Je réalise un dessin par jour, ce qui fait que je réussis à illustrer un album tout entier en 1 mois. En une année, je parviens à en faire une dizaine ! [...] Parfois, j’illustre 5 ou 6 livres en même temps[9]. »
-Il réalise également « des couvertures de romans pour adultes[8] ».
-Il a illustré plusieurs dizaines d'ouvrages, sur des textes de Vincent Cuvellier — dont la série Émile[5],[2],[10], créée en 2012[4] —, Davide Cali, Valentine Goby, Fanny Joly ou Hubert Ben Kemoun . 
-Il écrit également ses propres textes, qu'il illustre. Il est ainsi auteur-illustrateur d'une vingtaine de titres, dont la série jeunesse de bande dessinée en quatre tomes Petit Sapiens, publiée entre 2006 et 2011, et de l'album 3600 secondes en 2010, dont la critique du magazine Télérama mentionne : « Tout en douceur, mais à 100 000 à l'heure, 3 600 secondes est un voyage en poésie[11] », ouvrage dont Ronan Badel déclare trois ans après sa publication, en 2013: « J’y parle de ma vie, de mon grand-père, de mon chien et de mon rêve. C’est un livre autobiographique[8] ». En 2013 sortent L'Ami paresseux ou Kiki et Rosalie, qui, selon la critique du journal Le Figaro « aborde sans jamais s'appesantir des sujets graves comme la solitude des personnes âgées ou l'intolérance » et pour qui « le dessin allègre de Ronan Badel ajoute au charme de l'ouvrage[12]. »
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ronan Badel a suivi sa scolarité au lycée Benjamin-Franklin à Auray, a suivi une école de dessin à Paris et il est diplômé de l'École supérieure des arts décoratifs de Strasbourg,. Il indique en 2013 : « Dans le jury qui a examiné mon projet de diplôme, il y avait un éditeur du Seuil. C'est ainsi que mon premier livre est sorti, en 1998 », alors qu'il est âgé de 26 ans.
+Il enseigne l’illustration dans une école d’art à Paris durant plusieurs années, puis retourne dans sa région natale, la Bretagne, à Vannes, en 2003, où il réside toujours, pour se consacrer à l'écriture et à l'illustration d'ouvrages jeunesse.
+Il se sert de plusieurs techniques d'illustration, et déclare en 2014 : « Quand je reçois un projet ou quand j’écris un texte, je ne sais jamais quelle piste graphique je vais utiliser. C’est précisément ce qui m’intéresse. Je veux continuer à chercher et à explorer différentes écritures, différents outils. » En 2017, il précise : « Je réalise un dessin par jour, ce qui fait que je réussis à illustrer un album tout entier en 1 mois. En une année, je parviens à en faire une dizaine ! [...] Parfois, j’illustre 5 ou 6 livres en même temps. »
+Il réalise également « des couvertures de romans pour adultes ».
+Il a illustré plusieurs dizaines d'ouvrages, sur des textes de Vincent Cuvellier — dont la série Émile créée en 2012 —, Davide Cali, Valentine Goby, Fanny Joly ou Hubert Ben Kemoun . 
+Il écrit également ses propres textes, qu'il illustre. Il est ainsi auteur-illustrateur d'une vingtaine de titres, dont la série jeunesse de bande dessinée en quatre tomes Petit Sapiens, publiée entre 2006 et 2011, et de l'album 3600 secondes en 2010, dont la critique du magazine Télérama mentionne : « Tout en douceur, mais à 100 000 à l'heure, 3 600 secondes est un voyage en poésie », ouvrage dont Ronan Badel déclare trois ans après sa publication, en 2013: « J’y parle de ma vie, de mon grand-père, de mon chien et de mon rêve. C’est un livre autobiographique ». En 2013 sortent L'Ami paresseux ou Kiki et Rosalie, qui, selon la critique du journal Le Figaro « aborde sans jamais s'appesantir des sujets graves comme la solitude des personnes âgées ou l'intolérance » et pour qui « le dessin allègre de Ronan Badel ajoute au charme de l'ouvrage. »
 Il est publié par plusieurs éditeurs jeunesse, dont les éditions Autrement, les éditions Flammarion, Gallimard, éditions Sarbacane ou Didier Jeunesse.
-Ronan Badel compte plus de 150 publications[3], en 2016.
-Il a été récompensé de plusieurs prix, dont le Prix Sorcières, par deux fois[13], en 2013 et 2015.
-Il est l'illustrateur  de la série de romans jeunesse écrite par Charly Delwart, Les Aventures de moi-même. Le premier tome Journal de ma fugue est publié en 2021. Pour l'avis critique de Télérama : « Charly Delwart a l’art de faire rire en mêlant fantaisie, rigueur parfois cruelle de l’observation et tendresse, toujours. De cette singulière alchimie, soutenue par le crayon espiègle d’un illustrateur au diapason, naît un roman d’initiation extrêmement drôle, mais plus sérieux qu’il n’y paraît[14] ». En 2022 sort le deuxième opus Journal du grand amour[15], et  
-le troisième en 2023 Journal de ma manif[16].
+Ronan Badel compte plus de 150 publications, en 2016.
+Il a été récompensé de plusieurs prix, dont le Prix Sorcières, par deux fois, en 2013 et 2015.
+Il est l'illustrateur  de la série de romans jeunesse écrite par Charly Delwart, Les Aventures de moi-même. Le premier tome Journal de ma fugue est publié en 2021. Pour l'avis critique de Télérama : « Charly Delwart a l’art de faire rire en mêlant fantaisie, rigueur parfois cruelle de l’observation et tendresse, toujours. De cette singulière alchimie, soutenue par le crayon espiègle d’un illustrateur au diapason, naît un roman d’initiation extrêmement drôle, mais plus sérieux qu’il n’y paraît ». En 2022 sort le deuxième opus Journal du grand amour, et  
+le troisième en 2023 Journal de ma manif.
 </t>
         </is>
       </c>
@@ -553,11 +567,48 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Liste non exhaustive
-Auteur et illustrateur
-Séries de bande dessinée
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liste non exhaustive
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Ronan_Badel</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ronan_Badel</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Auteur et illustrateur</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Séries de bande dessinée
 Petit Sapiens, éditions Lito
 La Vie de famille, 2006
 Derrière la montagne, 2006
@@ -567,14 +618,48 @@
  Une famille au poil,2019
 La maison du chat, 2019
 Quelques albums
-3600 secondes[11], Autrement jeunesse, 2010
-Kiki et Rosalie[12], Sarbacane, 2013
+3600 secondes, Autrement jeunesse, 2010
+Kiki et Rosalie, Sarbacane, 2013
 L'Ami paresseux, Autrement jeunesse, 2013
-Cache-toi, Arsène !, Sarbacane, 2018
-Illustrateur
-Principales séries
+Cache-toi, Arsène !, Sarbacane, 2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Ronan_Badel</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ronan_Badel</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Illustrateur</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Principales séries
 Série Français d'ailleurs, texte de Valentine Goby, Autrement jeunesse
-Une demi-douzaine de titres, dont Antonio ou la résistance[17], 2011 ; 2007 - 2014
+Une demi-douzaine de titres, dont Antonio ou la résistance, 2011 ; 2007 - 2014
 Série Les Sales Histoires de Félicien Moutarde, texte de Fabrice Melquiot, L’Élan vert
  La Naissance de Félicien Moutarde, 2010
  Deuxième fois qui pique, 2011
@@ -584,7 +669,7 @@
 Gruk sur la piste des hot dogs ((en) Grk and the hot dog trail), 2010
 Série Cucu la praline, texte de Fanny Joly, Gallimard jeunesse
 Une dizaine de titres ; 2010 - en cours
-Série Émile[4],[5],[2],[10], sur un texte de Vincent Cuvellier, Gallimard Jeunesse
+Série Émile sur un texte de Vincent Cuvellier, Gallimard Jeunesse
 Une vingtaine de titres ; 2012 - en cours
 Série Billie du Bayou, texte de  Séverine Vidal, L'élan vert
 SOS Garp en détresse, 2013
@@ -592,16 +677,16 @@
 Série Le Loup gris, texte de Gilles Bizouerne, Didier jeunesse
 La Bonne Humeur de Loup Gris, 2012
  Le jour où Loup gris est devenu bleu, 2014
-Loup gris et la mouche[18], 2017
+Loup gris et la mouche, 2017
 Loup gris se déguise, 2019
 Série Dragons, texte de Alexandre Lacroix, Père Castor-Flammarion
-Dragons, père et fils[19], 2014
-Dragons amoureux ![20], 2016
+Dragons, père et fils, 2014
+Dragons amoureux !, 2016
 Dragons au boulot !, 2018
 série Les Aventures de moi-même, écrite par Charly Delwart, Paris, Flammarion Jeunesse
- Journal de ma fugue, 2021, 144 p.  (ISBN 9782080205957)[14]
-Journal du grand amour, 2022, 144 p.  (ISBN 978-2080272966)[15]
-Journal de ma manif[16], 2023
+ Journal de ma fugue, 2021, 144 p.  (ISBN 9782080205957)
+Journal du grand amour, 2022, 144 p.  (ISBN 978-2080272966)
+Journal de ma manif, 2023
 Quelques albums
  Alerte au cyclone, texte de Michel Piquemal, Nathan, 2003
  Ma dent ! Elle bouge !, texte de Agnès de Lestrade, Lito, 2006
@@ -611,21 +696,21 @@
  Moi !, texte de Hubert Ben Kemoun, Nathan, 2007
  Flamzy le petit dragon, texte de Claudine Desmarteau, Seuil jeunesse, 2007
  La Chèvre biscornue, texte de Christine Kiffer, Didier jeunesse, 2008
-texte de Françoise de Guibert, plusieurs titres, dont  Billy le môme[21], éditions Thierry Magnier, 2010
+texte de Françoise de Guibert, plusieurs titres, dont  Billy le môme, éditions Thierry Magnier, 2010
  Mona Lisa, Léonard de Vinci, texte de Géraldine Elschner, Cndp, Crdp, 2011
  Les Aventures agricoles d'Harry l'agriculteur,  texte de Christophe Nicolas, Albin Michel jeunesse, 2012
-texte de Noé Carlain (pseudo.), plusieurs titres, dont Le Livre abominable[22], Sarbacane, 2012
+texte de Noé Carlain (pseudo.), plusieurs titres, dont Le Livre abominable, Sarbacane, 2012
  Les Ogres mutants, texte de Guillaume Guéraud, Sarbacane, 2013
-Le carnet secret de Timothey Fusée[23], texte de Amanda Sthers, Nathan, 2013
+Le carnet secret de Timothey Fusée, texte de Amanda Sthers, Nathan, 2013
 Bob le Loup, texte de Jean-Luc Le Pogam, Glénat, 2013
-Henri ne veut pas aller au centre de loisirs[24], texte de Christophe Nicolas, Didier Jeunesse, 2013
- P'tit Napo[25], texte de Géraldine Elschner, Glénat, 2014
+Henri ne veut pas aller au centre de loisirs, texte de Christophe Nicolas, Didier Jeunesse, 2013
+ P'tit Napo, texte de Géraldine Elschner, Glénat, 2014
  Ce que le roi qui n'avait pas d'enfants ne savait pas, texte de Jo Hoestlandt, Oskar, 2015
  Les extraordinaires aventures de tous les jours, texte de Claude Gutman, Castor Poche, 2015
  P'tit Louis XIV, texte de Géraldine Elschner, Glénat, 2015
 Tonnerre de prouts !, texte de Antoine Guilloppé, Gautier-Languereau, 2015
-The Bacon Brothers : Retour en Amérique[26], texte de Davide Cali, ABC Melody, 2016
- Il était trop de fois[27], texte de Muriel Zürcher, éditions Thierry Magnier, 2016
+The Bacon Brothers : Retour en Amérique, texte de Davide Cali, ABC Melody, 2016
+ Il était trop de fois, texte de Muriel Zürcher, éditions Thierry Magnier, 2016
 Embrasse-moi, texte de Jacques Prévert, Gallimard jeunesse, 2016
 L’Écrivain abominable, texte de Anne-Gaëlle Balpe, Sarbacane, 2017
  P'tie Cléo, texte de Géraldine Elschner, Glénat, 2017
@@ -640,80 +725,84 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Ronan_Badel</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Ronan_Badel</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Quelques expositions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2010 : 10 ans de dessins originaux, pour 75 albums, galerie Les Funambules, Vannes (Morbihan)[28]
-2017 : « Embrasse-moi », planches originales de l'album (textes de Jacques Prévert), Festival du Livre de Jeunesse de Beausoleil (Alpes-Maritimes)[29]
-2020 : « Petit sapiens. Flash-back dans le temps ! », durant le Salon du roman historique 2020[30], Médiathèque Gustave-Eiffel, Levallois-Perret (Hauts-de-Seine)</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2010 : 10 ans de dessins originaux, pour 75 albums, galerie Les Funambules, Vannes (Morbihan)
+2017 : « Embrasse-moi », planches originales de l'album (textes de Jacques Prévert), Festival du Livre de Jeunesse de Beausoleil (Alpes-Maritimes)
+2020 : « Petit sapiens. Flash-back dans le temps ! », durant le Salon du roman historique 2020, Médiathèque Gustave-Eiffel, Levallois-Perret (Hauts-de-Seine)</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Ronan_Badel</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Ronan_Badel</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2011 : Prix Chronos de Littérature[31] pour Le Pépé de mon Pépé, texte de Noé Carlain (pseudo.), qu'il a illustré
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2011 : Prix Chronos de Littérature pour Le Pépé de mon Pépé, texte de Noé Carlain (pseudo.), qu'il a illustré
 2013 :
-Prix du roman historique jeunesse[32], pour Antonio ou la résistance[17], texte de Valentine Goby, qu'il a illustré
-Prix Sorcières[13],[5] catégorie Premières lectures, pour Émile est invisible, texte de Vincent Cuvellier, qu'il a illustré
- Prix des libraires du Québec section Jeunesse[33],[5], pour  Émile est invisible, texte de Vincent Cuvellier, qu'il a illustré
-Prix Ficelle[34] pour Tout ce qu'une maman ne dira jamais, texte de Noé Carlain, qu'il a illustré
-Prix Je lis J'élis[22] pour Le Livre abominable, texte de Noé Carlain (pseudo.), qu'il a illustré
-2014 : Prix Chronos de Littérature[31] pour Kiki et Rosalie[12], qu'il a écrit et illustré
+Prix du roman historique jeunesse, pour Antonio ou la résistance, texte de Valentine Goby, qu'il a illustré
+Prix Sorcières, catégorie Premières lectures, pour Émile est invisible, texte de Vincent Cuvellier, qu'il a illustré
+ Prix des libraires du Québec section Jeunesse pour  Émile est invisible, texte de Vincent Cuvellier, qu'il a illustré
+Prix Ficelle pour Tout ce qu'une maman ne dira jamais, texte de Noé Carlain, qu'il a illustré
+Prix Je lis J'élis pour Le Livre abominable, texte de Noé Carlain (pseudo.), qu'il a illustré
+2014 : Prix Chronos de Littérature pour Kiki et Rosalie, qu'il a écrit et illustré
 2015 :
-Prix Sorcières[13] catégorie Premières lectures, pour Le Meilleur Livre pour apprendre à dessiner une vache, texte de Hélène Rice, qu'il a illustré
-Prix des Incorruptibles[35] pour La Bonne Humeur de Loup Gris, texte de Gilles Bizouerne, qu'il a illustré
-2016 : Coup de cœur Jeune Public printemps 2016 de l'Académie Charles-Cros avec Vincent Cuvellier pour Émile en musique[36]
+Prix Sorcières catégorie Premières lectures, pour Le Meilleur Livre pour apprendre à dessiner une vache, texte de Hélène Rice, qu'il a illustré
+Prix des Incorruptibles pour La Bonne Humeur de Loup Gris, texte de Gilles Bizouerne, qu'il a illustré
+2016 : Coup de cœur Jeune Public printemps 2016 de l'Académie Charles-Cros avec Vincent Cuvellier pour Émile en musique
 2021 :
-Prix Littéralouest, dans trois catégories[37], pour les deux ouvrages qu'il a illustrés : Loup gris se déguise de Gilles Bizouerne, Le permis d’être un enfant de Martin Page, et pour Pépère le chat, tome 1 : La maison du chat qu'il a écrit et illustré
-Prix Gayant Lecture[38] pour L'épouvantable bibliothécaire, texte d'Anne-Gaëlle Balpe, qu'il a illustré
-2022 : Prix Gayant Lecture[38] pour Loup gris et Louvette, texte de Gilles Bizouerne, qu'il a illustré</t>
+Prix Littéralouest, dans trois catégories, pour les deux ouvrages qu'il a illustrés : Loup gris se déguise de Gilles Bizouerne, Le permis d’être un enfant de Martin Page, et pour Pépère le chat, tome 1 : La maison du chat qu'il a écrit et illustré
+Prix Gayant Lecture pour L'épouvantable bibliothécaire, texte d'Anne-Gaëlle Balpe, qu'il a illustré
+2022 : Prix Gayant Lecture pour Loup gris et Louvette, texte de Gilles Bizouerne, qu'il a illustré</t>
         </is>
       </c>
     </row>
